--- a/inst/extdata/list_type.xlsx
+++ b/inst/extdata/list_type.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27715"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26915"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/greg/Desktop/readxl/tests/testthat/sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jenny/rrr/readxl/tests/testthat/sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="18200" windowHeight="7480"/>
+    <workbookView xWindow="15680" yWindow="1140" windowWidth="10000" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -377,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -408,6 +408,11 @@
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
